--- a/esl-survey/esl.xlsx
+++ b/esl-survey/esl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\survey_and_stats\esl-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E8530-8AC9-477D-A52D-887DD05399D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B7224A-C26E-4C6E-9E37-88BE9C5A4791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="450" windowWidth="19380" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="3280" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AH46" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -750,18 +750,6 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-3</v>
-      </c>
-      <c r="C2">
-        <v>-3</v>
-      </c>
-      <c r="D2">
-        <v>-3</v>
-      </c>
-      <c r="E2">
-        <v>-3</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -774,84 +762,6 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>-3</v>
-      </c>
-      <c r="K2">
-        <v>-3</v>
-      </c>
-      <c r="L2">
-        <v>-3</v>
-      </c>
-      <c r="M2">
-        <v>-3</v>
-      </c>
-      <c r="N2">
-        <v>-3</v>
-      </c>
-      <c r="O2">
-        <v>-3</v>
-      </c>
-      <c r="P2">
-        <v>-3</v>
-      </c>
-      <c r="Q2">
-        <v>-3</v>
-      </c>
-      <c r="R2">
-        <v>-3</v>
-      </c>
-      <c r="S2">
-        <v>-3</v>
-      </c>
-      <c r="T2">
-        <v>-3</v>
-      </c>
-      <c r="U2">
-        <v>-3</v>
-      </c>
-      <c r="V2">
-        <v>-3</v>
-      </c>
-      <c r="W2">
-        <v>-3</v>
-      </c>
-      <c r="X2">
-        <v>-3</v>
-      </c>
-      <c r="Y2">
-        <v>-3</v>
-      </c>
-      <c r="Z2">
-        <v>-3</v>
-      </c>
-      <c r="AA2">
-        <v>-3</v>
-      </c>
-      <c r="AB2">
-        <v>-3</v>
-      </c>
-      <c r="AC2">
-        <v>-3</v>
-      </c>
-      <c r="AD2">
-        <v>-3</v>
-      </c>
-      <c r="AE2">
-        <v>-3</v>
-      </c>
-      <c r="AF2">
-        <v>-3</v>
-      </c>
-      <c r="AG2">
-        <v>-3</v>
-      </c>
-      <c r="AH2">
-        <v>-3</v>
-      </c>
-      <c r="AI2">
-        <v>-3</v>
-      </c>
       <c r="AJ2">
         <v>2</v>
       </c>
@@ -866,9 +776,6 @@
       </c>
       <c r="AN2">
         <v>3</v>
-      </c>
-      <c r="AO2">
-        <v>-3</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -890,9 +797,6 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>-3</v>
-      </c>
       <c r="H3">
         <v>4</v>
       </c>
@@ -992,26 +896,11 @@
       <c r="AN3">
         <v>3</v>
       </c>
-      <c r="AO3">
-        <v>-3</v>
-      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-3</v>
-      </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-      <c r="D4">
-        <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>-3</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1024,84 +913,6 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>-3</v>
-      </c>
-      <c r="K4">
-        <v>-3</v>
-      </c>
-      <c r="L4">
-        <v>-3</v>
-      </c>
-      <c r="M4">
-        <v>-3</v>
-      </c>
-      <c r="N4">
-        <v>-3</v>
-      </c>
-      <c r="O4">
-        <v>-3</v>
-      </c>
-      <c r="P4">
-        <v>-3</v>
-      </c>
-      <c r="Q4">
-        <v>-3</v>
-      </c>
-      <c r="R4">
-        <v>-3</v>
-      </c>
-      <c r="S4">
-        <v>-3</v>
-      </c>
-      <c r="T4">
-        <v>-3</v>
-      </c>
-      <c r="U4">
-        <v>-3</v>
-      </c>
-      <c r="V4">
-        <v>-3</v>
-      </c>
-      <c r="W4">
-        <v>-3</v>
-      </c>
-      <c r="X4">
-        <v>-3</v>
-      </c>
-      <c r="Y4">
-        <v>-3</v>
-      </c>
-      <c r="Z4">
-        <v>-3</v>
-      </c>
-      <c r="AA4">
-        <v>-3</v>
-      </c>
-      <c r="AB4">
-        <v>-3</v>
-      </c>
-      <c r="AC4">
-        <v>-3</v>
-      </c>
-      <c r="AD4">
-        <v>-3</v>
-      </c>
-      <c r="AE4">
-        <v>-3</v>
-      </c>
-      <c r="AF4">
-        <v>-3</v>
-      </c>
-      <c r="AG4">
-        <v>-3</v>
-      </c>
-      <c r="AH4">
-        <v>-3</v>
-      </c>
-      <c r="AI4">
-        <v>-3</v>
-      </c>
       <c r="AJ4">
         <v>2</v>
       </c>
@@ -1116,117 +927,21 @@
       </c>
       <c r="AN4">
         <v>3</v>
-      </c>
-      <c r="AO4">
-        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>-3</v>
-      </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>-3</v>
-      </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>-3</v>
-      </c>
-      <c r="K5">
-        <v>-3</v>
-      </c>
-      <c r="L5">
-        <v>-3</v>
-      </c>
-      <c r="M5">
-        <v>-3</v>
-      </c>
-      <c r="N5">
-        <v>-3</v>
-      </c>
-      <c r="O5">
-        <v>-3</v>
-      </c>
-      <c r="P5">
-        <v>-3</v>
-      </c>
-      <c r="Q5">
-        <v>-3</v>
-      </c>
-      <c r="R5">
-        <v>-3</v>
-      </c>
-      <c r="S5">
-        <v>-3</v>
-      </c>
-      <c r="T5">
-        <v>-3</v>
-      </c>
-      <c r="U5">
-        <v>-3</v>
-      </c>
-      <c r="V5">
-        <v>-3</v>
-      </c>
-      <c r="W5">
-        <v>-3</v>
-      </c>
-      <c r="X5">
-        <v>-3</v>
-      </c>
-      <c r="Y5">
-        <v>-3</v>
-      </c>
-      <c r="Z5">
-        <v>-3</v>
-      </c>
-      <c r="AA5">
-        <v>-3</v>
-      </c>
-      <c r="AB5">
-        <v>-3</v>
-      </c>
-      <c r="AC5">
-        <v>-3</v>
-      </c>
-      <c r="AD5">
-        <v>-3</v>
-      </c>
-      <c r="AE5">
-        <v>-3</v>
-      </c>
-      <c r="AF5">
-        <v>-3</v>
-      </c>
-      <c r="AG5">
-        <v>-3</v>
-      </c>
-      <c r="AH5">
-        <v>-3</v>
-      </c>
-      <c r="AI5">
-        <v>-3</v>
-      </c>
       <c r="AJ5">
         <v>2</v>
       </c>
@@ -1241,117 +956,21 @@
       </c>
       <c r="AN5">
         <v>3</v>
-      </c>
-      <c r="AO5">
-        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>-3</v>
-      </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>-3</v>
-      </c>
-      <c r="K6">
-        <v>-3</v>
-      </c>
-      <c r="L6">
-        <v>-3</v>
-      </c>
-      <c r="M6">
-        <v>-3</v>
-      </c>
-      <c r="N6">
-        <v>-3</v>
-      </c>
-      <c r="O6">
-        <v>-3</v>
-      </c>
-      <c r="P6">
-        <v>-3</v>
-      </c>
-      <c r="Q6">
-        <v>-3</v>
-      </c>
-      <c r="R6">
-        <v>-3</v>
-      </c>
-      <c r="S6">
-        <v>-3</v>
-      </c>
-      <c r="T6">
-        <v>-3</v>
-      </c>
-      <c r="U6">
-        <v>-3</v>
-      </c>
-      <c r="V6">
-        <v>-3</v>
-      </c>
-      <c r="W6">
-        <v>-3</v>
-      </c>
-      <c r="X6">
-        <v>-3</v>
-      </c>
-      <c r="Y6">
-        <v>-3</v>
-      </c>
-      <c r="Z6">
-        <v>-3</v>
-      </c>
-      <c r="AA6">
-        <v>-3</v>
-      </c>
-      <c r="AB6">
-        <v>-3</v>
-      </c>
-      <c r="AC6">
-        <v>-3</v>
-      </c>
-      <c r="AD6">
-        <v>-3</v>
-      </c>
-      <c r="AE6">
-        <v>-3</v>
-      </c>
-      <c r="AF6">
-        <v>-3</v>
-      </c>
-      <c r="AG6">
-        <v>-3</v>
-      </c>
-      <c r="AH6">
-        <v>-3</v>
-      </c>
-      <c r="AI6">
-        <v>-3</v>
-      </c>
       <c r="AJ6">
         <v>2</v>
       </c>
@@ -1366,9 +985,6 @@
       </c>
       <c r="AN6">
         <v>3</v>
-      </c>
-      <c r="AO6">
-        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1492,26 +1108,11 @@
       <c r="AN7">
         <v>3</v>
       </c>
-      <c r="AO7">
-        <v>-3</v>
-      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <v>-3</v>
-      </c>
-      <c r="E8">
-        <v>-3</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1524,84 +1125,6 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>-3</v>
-      </c>
-      <c r="K8">
-        <v>-3</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>-3</v>
-      </c>
-      <c r="N8">
-        <v>-3</v>
-      </c>
-      <c r="O8">
-        <v>-3</v>
-      </c>
-      <c r="P8">
-        <v>-3</v>
-      </c>
-      <c r="Q8">
-        <v>-3</v>
-      </c>
-      <c r="R8">
-        <v>-3</v>
-      </c>
-      <c r="S8">
-        <v>-3</v>
-      </c>
-      <c r="T8">
-        <v>-3</v>
-      </c>
-      <c r="U8">
-        <v>-3</v>
-      </c>
-      <c r="V8">
-        <v>-3</v>
-      </c>
-      <c r="W8">
-        <v>-3</v>
-      </c>
-      <c r="X8">
-        <v>-3</v>
-      </c>
-      <c r="Y8">
-        <v>-3</v>
-      </c>
-      <c r="Z8">
-        <v>-3</v>
-      </c>
-      <c r="AA8">
-        <v>-3</v>
-      </c>
-      <c r="AB8">
-        <v>-3</v>
-      </c>
-      <c r="AC8">
-        <v>-3</v>
-      </c>
-      <c r="AD8">
-        <v>-3</v>
-      </c>
-      <c r="AE8">
-        <v>-3</v>
-      </c>
-      <c r="AF8">
-        <v>-3</v>
-      </c>
-      <c r="AG8">
-        <v>-3</v>
-      </c>
-      <c r="AH8">
-        <v>-3</v>
-      </c>
-      <c r="AI8">
-        <v>-3</v>
-      </c>
       <c r="AJ8">
         <v>2</v>
       </c>
@@ -1616,27 +1139,12 @@
       </c>
       <c r="AN8">
         <v>3</v>
-      </c>
-      <c r="AO8">
-        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1649,84 +1157,6 @@
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>-3</v>
-      </c>
-      <c r="K9">
-        <v>-3</v>
-      </c>
-      <c r="L9">
-        <v>-3</v>
-      </c>
-      <c r="M9">
-        <v>-3</v>
-      </c>
-      <c r="N9">
-        <v>-3</v>
-      </c>
-      <c r="O9">
-        <v>-3</v>
-      </c>
-      <c r="P9">
-        <v>-3</v>
-      </c>
-      <c r="Q9">
-        <v>-3</v>
-      </c>
-      <c r="R9">
-        <v>-3</v>
-      </c>
-      <c r="S9">
-        <v>-3</v>
-      </c>
-      <c r="T9">
-        <v>-3</v>
-      </c>
-      <c r="U9">
-        <v>-3</v>
-      </c>
-      <c r="V9">
-        <v>-3</v>
-      </c>
-      <c r="W9">
-        <v>-3</v>
-      </c>
-      <c r="X9">
-        <v>-3</v>
-      </c>
-      <c r="Y9">
-        <v>-3</v>
-      </c>
-      <c r="Z9">
-        <v>-3</v>
-      </c>
-      <c r="AA9">
-        <v>-3</v>
-      </c>
-      <c r="AB9">
-        <v>-3</v>
-      </c>
-      <c r="AC9">
-        <v>-3</v>
-      </c>
-      <c r="AD9">
-        <v>-3</v>
-      </c>
-      <c r="AE9">
-        <v>-3</v>
-      </c>
-      <c r="AF9">
-        <v>-3</v>
-      </c>
-      <c r="AG9">
-        <v>-3</v>
-      </c>
-      <c r="AH9">
-        <v>-3</v>
-      </c>
-      <c r="AI9">
-        <v>-3</v>
-      </c>
       <c r="AJ9">
         <v>1</v>
       </c>
@@ -1741,9 +1171,6 @@
       </c>
       <c r="AN9">
         <v>3</v>
-      </c>
-      <c r="AO9">
-        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -1765,9 +1192,6 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
       <c r="H10">
         <v>3</v>
       </c>
@@ -1866,9 +1290,6 @@
       </c>
       <c r="AN10">
         <v>3</v>
-      </c>
-      <c r="AO10">
-        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -1890,9 +1311,6 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>-3</v>
-      </c>
       <c r="H11">
         <v>2</v>
       </c>
@@ -1991,27 +1409,12 @@
       </c>
       <c r="AN11">
         <v>3</v>
-      </c>
-      <c r="AO11">
-        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
-        <v>-3</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -2024,84 +1427,6 @@
       <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12">
-        <v>-3</v>
-      </c>
-      <c r="K12">
-        <v>-3</v>
-      </c>
-      <c r="L12">
-        <v>-3</v>
-      </c>
-      <c r="M12">
-        <v>-3</v>
-      </c>
-      <c r="N12">
-        <v>-3</v>
-      </c>
-      <c r="O12">
-        <v>-3</v>
-      </c>
-      <c r="P12">
-        <v>-3</v>
-      </c>
-      <c r="Q12">
-        <v>-3</v>
-      </c>
-      <c r="R12">
-        <v>-3</v>
-      </c>
-      <c r="S12">
-        <v>-3</v>
-      </c>
-      <c r="T12">
-        <v>-3</v>
-      </c>
-      <c r="U12">
-        <v>-3</v>
-      </c>
-      <c r="V12">
-        <v>-3</v>
-      </c>
-      <c r="W12">
-        <v>-3</v>
-      </c>
-      <c r="X12">
-        <v>-3</v>
-      </c>
-      <c r="Y12">
-        <v>-3</v>
-      </c>
-      <c r="Z12">
-        <v>-3</v>
-      </c>
-      <c r="AA12">
-        <v>-3</v>
-      </c>
-      <c r="AB12">
-        <v>-3</v>
-      </c>
-      <c r="AC12">
-        <v>-3</v>
-      </c>
-      <c r="AD12">
-        <v>-3</v>
-      </c>
-      <c r="AE12">
-        <v>-3</v>
-      </c>
-      <c r="AF12">
-        <v>-3</v>
-      </c>
-      <c r="AG12">
-        <v>-3</v>
-      </c>
-      <c r="AH12">
-        <v>-3</v>
-      </c>
-      <c r="AI12">
-        <v>-3</v>
-      </c>
       <c r="AJ12">
         <v>2</v>
       </c>
@@ -2116,27 +1441,12 @@
       </c>
       <c r="AN12">
         <v>3</v>
-      </c>
-      <c r="AO12">
-        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>-3</v>
-      </c>
-      <c r="C13">
-        <v>-3</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-3</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -2149,84 +1459,6 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>-3</v>
-      </c>
-      <c r="K13">
-        <v>-3</v>
-      </c>
-      <c r="L13">
-        <v>-3</v>
-      </c>
-      <c r="M13">
-        <v>-3</v>
-      </c>
-      <c r="N13">
-        <v>-3</v>
-      </c>
-      <c r="O13">
-        <v>-3</v>
-      </c>
-      <c r="P13">
-        <v>-3</v>
-      </c>
-      <c r="Q13">
-        <v>-3</v>
-      </c>
-      <c r="R13">
-        <v>-3</v>
-      </c>
-      <c r="S13">
-        <v>-3</v>
-      </c>
-      <c r="T13">
-        <v>-3</v>
-      </c>
-      <c r="U13">
-        <v>-3</v>
-      </c>
-      <c r="V13">
-        <v>-3</v>
-      </c>
-      <c r="W13">
-        <v>-3</v>
-      </c>
-      <c r="X13">
-        <v>-3</v>
-      </c>
-      <c r="Y13">
-        <v>-3</v>
-      </c>
-      <c r="Z13">
-        <v>-3</v>
-      </c>
-      <c r="AA13">
-        <v>-3</v>
-      </c>
-      <c r="AB13">
-        <v>-3</v>
-      </c>
-      <c r="AC13">
-        <v>-3</v>
-      </c>
-      <c r="AD13">
-        <v>-3</v>
-      </c>
-      <c r="AE13">
-        <v>-3</v>
-      </c>
-      <c r="AF13">
-        <v>-3</v>
-      </c>
-      <c r="AG13">
-        <v>-3</v>
-      </c>
-      <c r="AH13">
-        <v>-3</v>
-      </c>
-      <c r="AI13">
-        <v>-3</v>
-      </c>
       <c r="AJ13">
         <v>1</v>
       </c>
@@ -2241,9 +1473,6 @@
       </c>
       <c r="AN13">
         <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2367,9 +1596,6 @@
       <c r="AN14">
         <v>3</v>
       </c>
-      <c r="AO14">
-        <v>-3</v>
-      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2492,9 +1718,6 @@
       <c r="AN15">
         <v>3</v>
       </c>
-      <c r="AO15">
-        <v>-3</v>
-      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2515,9 +1738,6 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>-3</v>
-      </c>
       <c r="H16">
         <v>3</v>
       </c>
@@ -2617,11 +1837,8 @@
       <c r="AN16">
         <v>3</v>
       </c>
-      <c r="AO16">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2742,11 +1959,8 @@
       <c r="AN17">
         <v>3</v>
       </c>
-      <c r="AO17">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2867,11 +2081,8 @@
       <c r="AN18">
         <v>3</v>
       </c>
-      <c r="AO18">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2992,11 +2203,8 @@
       <c r="AN19">
         <v>3</v>
       </c>
-      <c r="AO19">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3117,11 +2325,8 @@
       <c r="AN20">
         <v>3</v>
       </c>
-      <c r="AO20">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3140,9 +2345,6 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>-3</v>
-      </c>
       <c r="H21">
         <v>1</v>
       </c>
@@ -3242,11 +2444,8 @@
       <c r="AN21">
         <v>3</v>
       </c>
-      <c r="AO21">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3367,11 +2566,8 @@
       <c r="AN22">
         <v>3</v>
       </c>
-      <c r="AO22">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3390,9 +2586,6 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>-3</v>
-      </c>
       <c r="H23">
         <v>3</v>
       </c>
@@ -3492,11 +2685,8 @@
       <c r="AN23">
         <v>3</v>
       </c>
-      <c r="AO23">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3617,26 +2807,11 @@
       <c r="AN24">
         <v>3</v>
       </c>
-      <c r="AO24">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25">
-        <v>-3</v>
-      </c>
-      <c r="C25">
-        <v>-3</v>
-      </c>
-      <c r="D25">
-        <v>-3</v>
-      </c>
-      <c r="E25">
-        <v>-3</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -3649,84 +2824,6 @@
       <c r="I25">
         <v>5</v>
       </c>
-      <c r="J25">
-        <v>-3</v>
-      </c>
-      <c r="K25">
-        <v>-3</v>
-      </c>
-      <c r="L25">
-        <v>-3</v>
-      </c>
-      <c r="M25">
-        <v>-3</v>
-      </c>
-      <c r="N25">
-        <v>-3</v>
-      </c>
-      <c r="O25">
-        <v>-3</v>
-      </c>
-      <c r="P25">
-        <v>-3</v>
-      </c>
-      <c r="Q25">
-        <v>-3</v>
-      </c>
-      <c r="R25">
-        <v>-3</v>
-      </c>
-      <c r="S25">
-        <v>-3</v>
-      </c>
-      <c r="T25">
-        <v>-3</v>
-      </c>
-      <c r="U25">
-        <v>-3</v>
-      </c>
-      <c r="V25">
-        <v>-3</v>
-      </c>
-      <c r="W25">
-        <v>-3</v>
-      </c>
-      <c r="X25">
-        <v>-3</v>
-      </c>
-      <c r="Y25">
-        <v>-3</v>
-      </c>
-      <c r="Z25">
-        <v>-3</v>
-      </c>
-      <c r="AA25">
-        <v>-3</v>
-      </c>
-      <c r="AB25">
-        <v>-3</v>
-      </c>
-      <c r="AC25">
-        <v>-3</v>
-      </c>
-      <c r="AD25">
-        <v>-3</v>
-      </c>
-      <c r="AE25">
-        <v>-3</v>
-      </c>
-      <c r="AF25">
-        <v>-3</v>
-      </c>
-      <c r="AG25">
-        <v>-3</v>
-      </c>
-      <c r="AH25">
-        <v>-3</v>
-      </c>
-      <c r="AI25">
-        <v>-3</v>
-      </c>
       <c r="AJ25">
         <v>2</v>
       </c>
@@ -3742,26 +2839,11 @@
       <c r="AN25">
         <v>3</v>
       </c>
-      <c r="AO25">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26">
-        <v>-3</v>
-      </c>
-      <c r="C26">
-        <v>-3</v>
-      </c>
-      <c r="D26">
-        <v>-3</v>
-      </c>
-      <c r="E26">
-        <v>-3</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -3774,84 +2856,6 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26">
-        <v>-3</v>
-      </c>
-      <c r="K26">
-        <v>-3</v>
-      </c>
-      <c r="L26">
-        <v>-3</v>
-      </c>
-      <c r="M26">
-        <v>-3</v>
-      </c>
-      <c r="N26">
-        <v>-3</v>
-      </c>
-      <c r="O26">
-        <v>-3</v>
-      </c>
-      <c r="P26">
-        <v>-3</v>
-      </c>
-      <c r="Q26">
-        <v>-3</v>
-      </c>
-      <c r="R26">
-        <v>-3</v>
-      </c>
-      <c r="S26">
-        <v>-3</v>
-      </c>
-      <c r="T26">
-        <v>-3</v>
-      </c>
-      <c r="U26">
-        <v>-3</v>
-      </c>
-      <c r="V26">
-        <v>-3</v>
-      </c>
-      <c r="W26">
-        <v>-3</v>
-      </c>
-      <c r="X26">
-        <v>-3</v>
-      </c>
-      <c r="Y26">
-        <v>-3</v>
-      </c>
-      <c r="Z26">
-        <v>-3</v>
-      </c>
-      <c r="AA26">
-        <v>-3</v>
-      </c>
-      <c r="AB26">
-        <v>-3</v>
-      </c>
-      <c r="AC26">
-        <v>-3</v>
-      </c>
-      <c r="AD26">
-        <v>-3</v>
-      </c>
-      <c r="AE26">
-        <v>-3</v>
-      </c>
-      <c r="AF26">
-        <v>-3</v>
-      </c>
-      <c r="AG26">
-        <v>-3</v>
-      </c>
-      <c r="AH26">
-        <v>-3</v>
-      </c>
-      <c r="AI26">
-        <v>-3</v>
-      </c>
       <c r="AJ26">
         <v>2</v>
       </c>
@@ -3867,116 +2871,20 @@
       <c r="AN26">
         <v>3</v>
       </c>
-      <c r="AO26">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>-3</v>
-      </c>
-      <c r="C27">
-        <v>-3</v>
-      </c>
-      <c r="D27">
-        <v>-3</v>
-      </c>
-      <c r="E27">
-        <v>-3</v>
-      </c>
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>-3</v>
-      </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>-3</v>
-      </c>
-      <c r="K27">
-        <v>-3</v>
-      </c>
-      <c r="L27">
-        <v>-3</v>
-      </c>
-      <c r="M27">
-        <v>-3</v>
-      </c>
-      <c r="N27">
-        <v>-3</v>
-      </c>
-      <c r="O27">
-        <v>-3</v>
-      </c>
-      <c r="P27">
-        <v>-3</v>
-      </c>
-      <c r="Q27">
-        <v>-3</v>
-      </c>
-      <c r="R27">
-        <v>-3</v>
-      </c>
-      <c r="S27">
-        <v>-3</v>
-      </c>
-      <c r="T27">
-        <v>-3</v>
-      </c>
-      <c r="U27">
-        <v>-3</v>
-      </c>
-      <c r="V27">
-        <v>-3</v>
-      </c>
-      <c r="W27">
-        <v>-3</v>
-      </c>
-      <c r="X27">
-        <v>-3</v>
-      </c>
-      <c r="Y27">
-        <v>-3</v>
-      </c>
-      <c r="Z27">
-        <v>-3</v>
-      </c>
-      <c r="AA27">
-        <v>-3</v>
-      </c>
-      <c r="AB27">
-        <v>-3</v>
-      </c>
-      <c r="AC27">
-        <v>-3</v>
-      </c>
-      <c r="AD27">
-        <v>-3</v>
-      </c>
-      <c r="AE27">
-        <v>-3</v>
-      </c>
-      <c r="AF27">
-        <v>-3</v>
-      </c>
-      <c r="AG27">
-        <v>-3</v>
-      </c>
-      <c r="AH27">
-        <v>-3</v>
-      </c>
-      <c r="AI27">
-        <v>-3</v>
-      </c>
       <c r="AJ27">
         <v>1</v>
       </c>
@@ -3992,26 +2900,11 @@
       <c r="AN27">
         <v>2</v>
       </c>
-      <c r="AO27">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28">
-        <v>-3</v>
-      </c>
-      <c r="C28">
-        <v>-3</v>
-      </c>
-      <c r="D28">
-        <v>-3</v>
-      </c>
-      <c r="E28">
-        <v>-3</v>
-      </c>
       <c r="F28">
         <v>1</v>
       </c>
@@ -4024,84 +2917,6 @@
       <c r="I28">
         <v>5</v>
       </c>
-      <c r="J28">
-        <v>-3</v>
-      </c>
-      <c r="K28">
-        <v>-3</v>
-      </c>
-      <c r="L28">
-        <v>-3</v>
-      </c>
-      <c r="M28">
-        <v>-3</v>
-      </c>
-      <c r="N28">
-        <v>-3</v>
-      </c>
-      <c r="O28">
-        <v>-3</v>
-      </c>
-      <c r="P28">
-        <v>-3</v>
-      </c>
-      <c r="Q28">
-        <v>-3</v>
-      </c>
-      <c r="R28">
-        <v>-3</v>
-      </c>
-      <c r="S28">
-        <v>-3</v>
-      </c>
-      <c r="T28">
-        <v>-3</v>
-      </c>
-      <c r="U28">
-        <v>-3</v>
-      </c>
-      <c r="V28">
-        <v>-3</v>
-      </c>
-      <c r="W28">
-        <v>-3</v>
-      </c>
-      <c r="X28">
-        <v>-3</v>
-      </c>
-      <c r="Y28">
-        <v>-3</v>
-      </c>
-      <c r="Z28">
-        <v>-3</v>
-      </c>
-      <c r="AA28">
-        <v>-3</v>
-      </c>
-      <c r="AB28">
-        <v>-3</v>
-      </c>
-      <c r="AC28">
-        <v>-3</v>
-      </c>
-      <c r="AD28">
-        <v>-3</v>
-      </c>
-      <c r="AE28">
-        <v>-3</v>
-      </c>
-      <c r="AF28">
-        <v>-3</v>
-      </c>
-      <c r="AG28">
-        <v>-3</v>
-      </c>
-      <c r="AH28">
-        <v>-3</v>
-      </c>
-      <c r="AI28">
-        <v>-3</v>
-      </c>
       <c r="AJ28">
         <v>2</v>
       </c>
@@ -4117,26 +2932,11 @@
       <c r="AN28">
         <v>3</v>
       </c>
-      <c r="AO28">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>-3</v>
-      </c>
-      <c r="C29">
-        <v>-3</v>
-      </c>
-      <c r="D29">
-        <v>-3</v>
-      </c>
-      <c r="E29">
-        <v>-3</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -4149,84 +2949,6 @@
       <c r="I29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>-3</v>
-      </c>
-      <c r="K29">
-        <v>-3</v>
-      </c>
-      <c r="L29">
-        <v>-3</v>
-      </c>
-      <c r="M29">
-        <v>-3</v>
-      </c>
-      <c r="N29">
-        <v>-3</v>
-      </c>
-      <c r="O29">
-        <v>-3</v>
-      </c>
-      <c r="P29">
-        <v>-3</v>
-      </c>
-      <c r="Q29">
-        <v>-3</v>
-      </c>
-      <c r="R29">
-        <v>-3</v>
-      </c>
-      <c r="S29">
-        <v>-3</v>
-      </c>
-      <c r="T29">
-        <v>-3</v>
-      </c>
-      <c r="U29">
-        <v>-3</v>
-      </c>
-      <c r="V29">
-        <v>-3</v>
-      </c>
-      <c r="W29">
-        <v>-3</v>
-      </c>
-      <c r="X29">
-        <v>-3</v>
-      </c>
-      <c r="Y29">
-        <v>-3</v>
-      </c>
-      <c r="Z29">
-        <v>-3</v>
-      </c>
-      <c r="AA29">
-        <v>-3</v>
-      </c>
-      <c r="AB29">
-        <v>-3</v>
-      </c>
-      <c r="AC29">
-        <v>-3</v>
-      </c>
-      <c r="AD29">
-        <v>-3</v>
-      </c>
-      <c r="AE29">
-        <v>-3</v>
-      </c>
-      <c r="AF29">
-        <v>-3</v>
-      </c>
-      <c r="AG29">
-        <v>-3</v>
-      </c>
-      <c r="AH29">
-        <v>-3</v>
-      </c>
-      <c r="AI29">
-        <v>-3</v>
-      </c>
       <c r="AJ29">
         <v>2</v>
       </c>
@@ -4242,11 +2964,8 @@
       <c r="AN29">
         <v>3</v>
       </c>
-      <c r="AO29">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4367,11 +3086,8 @@
       <c r="AN30">
         <v>3</v>
       </c>
-      <c r="AO30">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4492,11 +3208,8 @@
       <c r="AN31">
         <v>3</v>
       </c>
-      <c r="AO31">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4515,9 +3228,6 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32">
-        <v>-3</v>
-      </c>
       <c r="H32">
         <v>2</v>
       </c>
@@ -4617,26 +3327,11 @@
       <c r="AN32">
         <v>2</v>
       </c>
-      <c r="AO32">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33">
-        <v>-3</v>
-      </c>
-      <c r="C33">
-        <v>-3</v>
-      </c>
-      <c r="D33">
-        <v>-3</v>
-      </c>
-      <c r="E33">
-        <v>-3</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
@@ -4649,84 +3344,6 @@
       <c r="I33">
         <v>4</v>
       </c>
-      <c r="J33">
-        <v>-3</v>
-      </c>
-      <c r="K33">
-        <v>-3</v>
-      </c>
-      <c r="L33">
-        <v>-3</v>
-      </c>
-      <c r="M33">
-        <v>-3</v>
-      </c>
-      <c r="N33">
-        <v>-3</v>
-      </c>
-      <c r="O33">
-        <v>-3</v>
-      </c>
-      <c r="P33">
-        <v>-3</v>
-      </c>
-      <c r="Q33">
-        <v>-3</v>
-      </c>
-      <c r="R33">
-        <v>-3</v>
-      </c>
-      <c r="S33">
-        <v>-3</v>
-      </c>
-      <c r="T33">
-        <v>-3</v>
-      </c>
-      <c r="U33">
-        <v>-3</v>
-      </c>
-      <c r="V33">
-        <v>-3</v>
-      </c>
-      <c r="W33">
-        <v>-3</v>
-      </c>
-      <c r="X33">
-        <v>-3</v>
-      </c>
-      <c r="Y33">
-        <v>-3</v>
-      </c>
-      <c r="Z33">
-        <v>-3</v>
-      </c>
-      <c r="AA33">
-        <v>-3</v>
-      </c>
-      <c r="AB33">
-        <v>-3</v>
-      </c>
-      <c r="AC33">
-        <v>-3</v>
-      </c>
-      <c r="AD33">
-        <v>-3</v>
-      </c>
-      <c r="AE33">
-        <v>-3</v>
-      </c>
-      <c r="AF33">
-        <v>-3</v>
-      </c>
-      <c r="AG33">
-        <v>-3</v>
-      </c>
-      <c r="AH33">
-        <v>-3</v>
-      </c>
-      <c r="AI33">
-        <v>-3</v>
-      </c>
       <c r="AJ33">
         <v>2</v>
       </c>
@@ -4742,116 +3359,20 @@
       <c r="AN33">
         <v>3</v>
       </c>
-      <c r="AO33">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34">
-        <v>-3</v>
-      </c>
-      <c r="C34">
-        <v>-3</v>
-      </c>
-      <c r="D34">
-        <v>-3</v>
-      </c>
-      <c r="E34">
-        <v>-3</v>
-      </c>
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>-3</v>
-      </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
-      <c r="J34">
-        <v>-3</v>
-      </c>
-      <c r="K34">
-        <v>-3</v>
-      </c>
-      <c r="L34">
-        <v>-3</v>
-      </c>
-      <c r="M34">
-        <v>-3</v>
-      </c>
-      <c r="N34">
-        <v>-3</v>
-      </c>
-      <c r="O34">
-        <v>-3</v>
-      </c>
-      <c r="P34">
-        <v>-3</v>
-      </c>
-      <c r="Q34">
-        <v>-3</v>
-      </c>
-      <c r="R34">
-        <v>-3</v>
-      </c>
-      <c r="S34">
-        <v>-3</v>
-      </c>
-      <c r="T34">
-        <v>-3</v>
-      </c>
-      <c r="U34">
-        <v>-3</v>
-      </c>
-      <c r="V34">
-        <v>-3</v>
-      </c>
-      <c r="W34">
-        <v>-3</v>
-      </c>
-      <c r="X34">
-        <v>-3</v>
-      </c>
-      <c r="Y34">
-        <v>-3</v>
-      </c>
-      <c r="Z34">
-        <v>-3</v>
-      </c>
-      <c r="AA34">
-        <v>-3</v>
-      </c>
-      <c r="AB34">
-        <v>-3</v>
-      </c>
-      <c r="AC34">
-        <v>-3</v>
-      </c>
-      <c r="AD34">
-        <v>-3</v>
-      </c>
-      <c r="AE34">
-        <v>-3</v>
-      </c>
-      <c r="AF34">
-        <v>-3</v>
-      </c>
-      <c r="AG34">
-        <v>-3</v>
-      </c>
-      <c r="AH34">
-        <v>-3</v>
-      </c>
-      <c r="AI34">
-        <v>-3</v>
-      </c>
       <c r="AJ34">
         <v>2</v>
       </c>
@@ -4867,116 +3388,20 @@
       <c r="AN34">
         <v>2</v>
       </c>
-      <c r="AO34">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35">
-        <v>-3</v>
-      </c>
-      <c r="C35">
-        <v>-3</v>
-      </c>
-      <c r="D35">
-        <v>-3</v>
-      </c>
-      <c r="E35">
-        <v>-3</v>
-      </c>
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>-3</v>
-      </c>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
-      <c r="J35">
-        <v>-3</v>
-      </c>
-      <c r="K35">
-        <v>-3</v>
-      </c>
-      <c r="L35">
-        <v>-3</v>
-      </c>
-      <c r="M35">
-        <v>-3</v>
-      </c>
-      <c r="N35">
-        <v>-3</v>
-      </c>
-      <c r="O35">
-        <v>-3</v>
-      </c>
-      <c r="P35">
-        <v>-3</v>
-      </c>
-      <c r="Q35">
-        <v>-3</v>
-      </c>
-      <c r="R35">
-        <v>-3</v>
-      </c>
-      <c r="S35">
-        <v>-3</v>
-      </c>
-      <c r="T35">
-        <v>-3</v>
-      </c>
-      <c r="U35">
-        <v>-3</v>
-      </c>
-      <c r="V35">
-        <v>-3</v>
-      </c>
-      <c r="W35">
-        <v>-3</v>
-      </c>
-      <c r="X35">
-        <v>-3</v>
-      </c>
-      <c r="Y35">
-        <v>-3</v>
-      </c>
-      <c r="Z35">
-        <v>-3</v>
-      </c>
-      <c r="AA35">
-        <v>-3</v>
-      </c>
-      <c r="AB35">
-        <v>-3</v>
-      </c>
-      <c r="AC35">
-        <v>-3</v>
-      </c>
-      <c r="AD35">
-        <v>-3</v>
-      </c>
-      <c r="AE35">
-        <v>-3</v>
-      </c>
-      <c r="AF35">
-        <v>-3</v>
-      </c>
-      <c r="AG35">
-        <v>-3</v>
-      </c>
-      <c r="AH35">
-        <v>-3</v>
-      </c>
-      <c r="AI35">
-        <v>-3</v>
-      </c>
       <c r="AJ35">
         <v>2</v>
       </c>
@@ -4992,26 +3417,11 @@
       <c r="AN35">
         <v>1</v>
       </c>
-      <c r="AO35">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36">
-        <v>-3</v>
-      </c>
-      <c r="C36">
-        <v>-3</v>
-      </c>
-      <c r="D36">
-        <v>-3</v>
-      </c>
-      <c r="E36">
-        <v>-3</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
@@ -5023,84 +3433,6 @@
       </c>
       <c r="I36">
         <v>5</v>
-      </c>
-      <c r="J36">
-        <v>-3</v>
-      </c>
-      <c r="K36">
-        <v>-3</v>
-      </c>
-      <c r="L36">
-        <v>-3</v>
-      </c>
-      <c r="M36">
-        <v>-3</v>
-      </c>
-      <c r="N36">
-        <v>-3</v>
-      </c>
-      <c r="O36">
-        <v>-3</v>
-      </c>
-      <c r="P36">
-        <v>-3</v>
-      </c>
-      <c r="Q36">
-        <v>-3</v>
-      </c>
-      <c r="R36">
-        <v>-3</v>
-      </c>
-      <c r="S36">
-        <v>-3</v>
-      </c>
-      <c r="T36">
-        <v>-3</v>
-      </c>
-      <c r="U36">
-        <v>-3</v>
-      </c>
-      <c r="V36">
-        <v>-3</v>
-      </c>
-      <c r="W36">
-        <v>-3</v>
-      </c>
-      <c r="X36">
-        <v>-3</v>
-      </c>
-      <c r="Y36">
-        <v>-3</v>
-      </c>
-      <c r="Z36">
-        <v>-3</v>
-      </c>
-      <c r="AA36">
-        <v>-3</v>
-      </c>
-      <c r="AB36">
-        <v>-3</v>
-      </c>
-      <c r="AC36">
-        <v>-3</v>
-      </c>
-      <c r="AD36">
-        <v>-3</v>
-      </c>
-      <c r="AE36">
-        <v>-3</v>
-      </c>
-      <c r="AF36">
-        <v>-3</v>
-      </c>
-      <c r="AG36">
-        <v>-3</v>
-      </c>
-      <c r="AH36">
-        <v>-3</v>
-      </c>
-      <c r="AI36">
-        <v>-3</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -5117,11 +3449,8 @@
       <c r="AN36">
         <v>6</v>
       </c>
-      <c r="AO36">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5139,9 +3468,6 @@
       </c>
       <c r="F37">
         <v>2</v>
-      </c>
-      <c r="G37">
-        <v>-3</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -5242,11 +3568,8 @@
       <c r="AN37">
         <v>9</v>
       </c>
-      <c r="AO37">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5367,11 +3690,8 @@
       <c r="AN38">
         <v>1</v>
       </c>
-      <c r="AO38">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5390,9 +3710,6 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>-3</v>
-      </c>
       <c r="H39">
         <v>3</v>
       </c>
@@ -5492,115 +3809,19 @@
       <c r="AN39">
         <v>1</v>
       </c>
-      <c r="AO39">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>-3</v>
-      </c>
-      <c r="C40">
-        <v>-3</v>
-      </c>
-      <c r="D40">
-        <v>-3</v>
-      </c>
-      <c r="E40">
-        <v>-3</v>
-      </c>
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>-3</v>
-      </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
         <v>5</v>
-      </c>
-      <c r="J40">
-        <v>-3</v>
-      </c>
-      <c r="K40">
-        <v>-3</v>
-      </c>
-      <c r="L40">
-        <v>-3</v>
-      </c>
-      <c r="M40">
-        <v>-3</v>
-      </c>
-      <c r="N40">
-        <v>-3</v>
-      </c>
-      <c r="O40">
-        <v>-3</v>
-      </c>
-      <c r="P40">
-        <v>-3</v>
-      </c>
-      <c r="Q40">
-        <v>-3</v>
-      </c>
-      <c r="R40">
-        <v>-3</v>
-      </c>
-      <c r="S40">
-        <v>-3</v>
-      </c>
-      <c r="T40">
-        <v>-3</v>
-      </c>
-      <c r="U40">
-        <v>-3</v>
-      </c>
-      <c r="V40">
-        <v>-3</v>
-      </c>
-      <c r="W40">
-        <v>-3</v>
-      </c>
-      <c r="X40">
-        <v>-3</v>
-      </c>
-      <c r="Y40">
-        <v>-3</v>
-      </c>
-      <c r="Z40">
-        <v>-3</v>
-      </c>
-      <c r="AA40">
-        <v>-3</v>
-      </c>
-      <c r="AB40">
-        <v>-3</v>
-      </c>
-      <c r="AC40">
-        <v>-3</v>
-      </c>
-      <c r="AD40">
-        <v>-3</v>
-      </c>
-      <c r="AE40">
-        <v>-3</v>
-      </c>
-      <c r="AF40">
-        <v>-3</v>
-      </c>
-      <c r="AG40">
-        <v>-3</v>
-      </c>
-      <c r="AH40">
-        <v>-3</v>
-      </c>
-      <c r="AI40">
-        <v>-3</v>
       </c>
       <c r="AJ40">
         <v>2</v>
@@ -5617,115 +3838,19 @@
       <c r="AN40">
         <v>6</v>
       </c>
-      <c r="AO40">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41">
-        <v>-3</v>
-      </c>
-      <c r="C41">
-        <v>-3</v>
-      </c>
-      <c r="D41">
-        <v>-3</v>
-      </c>
-      <c r="E41">
-        <v>-3</v>
-      </c>
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41">
-        <v>-3</v>
-      </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
         <v>3</v>
-      </c>
-      <c r="J41">
-        <v>-3</v>
-      </c>
-      <c r="K41">
-        <v>-3</v>
-      </c>
-      <c r="L41">
-        <v>-3</v>
-      </c>
-      <c r="M41">
-        <v>-3</v>
-      </c>
-      <c r="N41">
-        <v>-3</v>
-      </c>
-      <c r="O41">
-        <v>-3</v>
-      </c>
-      <c r="P41">
-        <v>-3</v>
-      </c>
-      <c r="Q41">
-        <v>-3</v>
-      </c>
-      <c r="R41">
-        <v>-3</v>
-      </c>
-      <c r="S41">
-        <v>-3</v>
-      </c>
-      <c r="T41">
-        <v>-3</v>
-      </c>
-      <c r="U41">
-        <v>-3</v>
-      </c>
-      <c r="V41">
-        <v>-3</v>
-      </c>
-      <c r="W41">
-        <v>-3</v>
-      </c>
-      <c r="X41">
-        <v>-3</v>
-      </c>
-      <c r="Y41">
-        <v>-3</v>
-      </c>
-      <c r="Z41">
-        <v>-3</v>
-      </c>
-      <c r="AA41">
-        <v>-3</v>
-      </c>
-      <c r="AB41">
-        <v>-3</v>
-      </c>
-      <c r="AC41">
-        <v>-3</v>
-      </c>
-      <c r="AD41">
-        <v>-3</v>
-      </c>
-      <c r="AE41">
-        <v>-3</v>
-      </c>
-      <c r="AF41">
-        <v>-3</v>
-      </c>
-      <c r="AG41">
-        <v>-3</v>
-      </c>
-      <c r="AH41">
-        <v>-3</v>
-      </c>
-      <c r="AI41">
-        <v>-3</v>
       </c>
       <c r="AJ41">
         <v>2</v>
@@ -5742,116 +3867,20 @@
       <c r="AN41">
         <v>10</v>
       </c>
-      <c r="AO41">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42">
-        <v>-3</v>
-      </c>
-      <c r="C42">
-        <v>-3</v>
-      </c>
-      <c r="D42">
-        <v>-3</v>
-      </c>
-      <c r="E42">
-        <v>-3</v>
-      </c>
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42">
-        <v>-3</v>
-      </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42">
         <v>4</v>
       </c>
-      <c r="J42">
-        <v>-3</v>
-      </c>
-      <c r="K42">
-        <v>-3</v>
-      </c>
-      <c r="L42">
-        <v>-3</v>
-      </c>
-      <c r="M42">
-        <v>-3</v>
-      </c>
-      <c r="N42">
-        <v>-3</v>
-      </c>
-      <c r="O42">
-        <v>-3</v>
-      </c>
-      <c r="P42">
-        <v>-3</v>
-      </c>
-      <c r="Q42">
-        <v>-3</v>
-      </c>
-      <c r="R42">
-        <v>-3</v>
-      </c>
-      <c r="S42">
-        <v>-3</v>
-      </c>
-      <c r="T42">
-        <v>-3</v>
-      </c>
-      <c r="U42">
-        <v>-3</v>
-      </c>
-      <c r="V42">
-        <v>-3</v>
-      </c>
-      <c r="W42">
-        <v>-3</v>
-      </c>
-      <c r="X42">
-        <v>-3</v>
-      </c>
-      <c r="Y42">
-        <v>-3</v>
-      </c>
-      <c r="Z42">
-        <v>-3</v>
-      </c>
-      <c r="AA42">
-        <v>-3</v>
-      </c>
-      <c r="AB42">
-        <v>-3</v>
-      </c>
-      <c r="AC42">
-        <v>-3</v>
-      </c>
-      <c r="AD42">
-        <v>-3</v>
-      </c>
-      <c r="AE42">
-        <v>-3</v>
-      </c>
-      <c r="AF42">
-        <v>-3</v>
-      </c>
-      <c r="AG42">
-        <v>-3</v>
-      </c>
-      <c r="AH42">
-        <v>-3</v>
-      </c>
-      <c r="AI42">
-        <v>-3</v>
-      </c>
       <c r="AJ42">
         <v>2</v>
       </c>
@@ -5867,26 +3896,11 @@
       <c r="AN42">
         <v>3</v>
       </c>
-      <c r="AO42">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43">
-        <v>-3</v>
-      </c>
-      <c r="C43">
-        <v>-3</v>
-      </c>
-      <c r="D43">
-        <v>-3</v>
-      </c>
-      <c r="E43">
-        <v>-3</v>
-      </c>
       <c r="F43">
         <v>1</v>
       </c>
@@ -5898,84 +3912,6 @@
       </c>
       <c r="I43">
         <v>4</v>
-      </c>
-      <c r="J43">
-        <v>-3</v>
-      </c>
-      <c r="K43">
-        <v>-3</v>
-      </c>
-      <c r="L43">
-        <v>-3</v>
-      </c>
-      <c r="M43">
-        <v>-3</v>
-      </c>
-      <c r="N43">
-        <v>-3</v>
-      </c>
-      <c r="O43">
-        <v>-3</v>
-      </c>
-      <c r="P43">
-        <v>-3</v>
-      </c>
-      <c r="Q43">
-        <v>-3</v>
-      </c>
-      <c r="R43">
-        <v>-3</v>
-      </c>
-      <c r="S43">
-        <v>-3</v>
-      </c>
-      <c r="T43">
-        <v>-3</v>
-      </c>
-      <c r="U43">
-        <v>-3</v>
-      </c>
-      <c r="V43">
-        <v>-3</v>
-      </c>
-      <c r="W43">
-        <v>-3</v>
-      </c>
-      <c r="X43">
-        <v>-3</v>
-      </c>
-      <c r="Y43">
-        <v>-3</v>
-      </c>
-      <c r="Z43">
-        <v>-3</v>
-      </c>
-      <c r="AA43">
-        <v>-3</v>
-      </c>
-      <c r="AB43">
-        <v>-3</v>
-      </c>
-      <c r="AC43">
-        <v>-3</v>
-      </c>
-      <c r="AD43">
-        <v>-3</v>
-      </c>
-      <c r="AE43">
-        <v>-3</v>
-      </c>
-      <c r="AF43">
-        <v>-3</v>
-      </c>
-      <c r="AG43">
-        <v>-3</v>
-      </c>
-      <c r="AH43">
-        <v>-3</v>
-      </c>
-      <c r="AI43">
-        <v>-3</v>
       </c>
       <c r="AJ43">
         <v>2</v>
@@ -5992,115 +3928,19 @@
       <c r="AN43">
         <v>9</v>
       </c>
-      <c r="AO43">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44">
-        <v>-3</v>
-      </c>
-      <c r="C44">
-        <v>-3</v>
-      </c>
-      <c r="D44">
-        <v>-3</v>
-      </c>
-      <c r="E44">
-        <v>-3</v>
-      </c>
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="G44">
-        <v>-3</v>
-      </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
         <v>2</v>
-      </c>
-      <c r="J44">
-        <v>-3</v>
-      </c>
-      <c r="K44">
-        <v>-3</v>
-      </c>
-      <c r="L44">
-        <v>-3</v>
-      </c>
-      <c r="M44">
-        <v>-3</v>
-      </c>
-      <c r="N44">
-        <v>-3</v>
-      </c>
-      <c r="O44">
-        <v>-3</v>
-      </c>
-      <c r="P44">
-        <v>-3</v>
-      </c>
-      <c r="Q44">
-        <v>-3</v>
-      </c>
-      <c r="R44">
-        <v>-3</v>
-      </c>
-      <c r="S44">
-        <v>-3</v>
-      </c>
-      <c r="T44">
-        <v>-3</v>
-      </c>
-      <c r="U44">
-        <v>-3</v>
-      </c>
-      <c r="V44">
-        <v>-3</v>
-      </c>
-      <c r="W44">
-        <v>-3</v>
-      </c>
-      <c r="X44">
-        <v>-3</v>
-      </c>
-      <c r="Y44">
-        <v>-3</v>
-      </c>
-      <c r="Z44">
-        <v>-3</v>
-      </c>
-      <c r="AA44">
-        <v>-3</v>
-      </c>
-      <c r="AB44">
-        <v>-3</v>
-      </c>
-      <c r="AC44">
-        <v>-3</v>
-      </c>
-      <c r="AD44">
-        <v>-3</v>
-      </c>
-      <c r="AE44">
-        <v>-3</v>
-      </c>
-      <c r="AF44">
-        <v>-3</v>
-      </c>
-      <c r="AG44">
-        <v>-3</v>
-      </c>
-      <c r="AH44">
-        <v>-3</v>
-      </c>
-      <c r="AI44">
-        <v>-3</v>
       </c>
       <c r="AJ44">
         <v>1</v>
@@ -6117,11 +3957,8 @@
       <c r="AN44">
         <v>6</v>
       </c>
-      <c r="AO44">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6139,9 +3976,6 @@
       </c>
       <c r="F45">
         <v>2</v>
-      </c>
-      <c r="G45">
-        <v>-3</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -6242,11 +4076,8 @@
       <c r="AN45">
         <v>6</v>
       </c>
-      <c r="AO45">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6264,9 +4095,6 @@
       </c>
       <c r="F46">
         <v>2</v>
-      </c>
-      <c r="G46">
-        <v>-3</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -6367,11 +4195,8 @@
       <c r="AN46">
         <v>9</v>
       </c>
-      <c r="AO46">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6389,9 +4214,6 @@
       </c>
       <c r="F47">
         <v>2</v>
-      </c>
-      <c r="G47">
-        <v>-3</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -6492,11 +4314,8 @@
       <c r="AN47">
         <v>9</v>
       </c>
-      <c r="AO47">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6617,26 +4436,11 @@
       <c r="AN48">
         <v>5</v>
       </c>
-      <c r="AO48">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
-      <c r="B49">
-        <v>-3</v>
-      </c>
-      <c r="C49">
-        <v>-3</v>
-      </c>
-      <c r="D49">
-        <v>-3</v>
-      </c>
-      <c r="E49">
-        <v>-3</v>
-      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -6649,84 +4453,6 @@
       <c r="I49">
         <v>4</v>
       </c>
-      <c r="J49">
-        <v>-3</v>
-      </c>
-      <c r="K49">
-        <v>-3</v>
-      </c>
-      <c r="L49">
-        <v>-3</v>
-      </c>
-      <c r="M49">
-        <v>-3</v>
-      </c>
-      <c r="N49">
-        <v>-3</v>
-      </c>
-      <c r="O49">
-        <v>-3</v>
-      </c>
-      <c r="P49">
-        <v>-3</v>
-      </c>
-      <c r="Q49">
-        <v>-3</v>
-      </c>
-      <c r="R49">
-        <v>-3</v>
-      </c>
-      <c r="S49">
-        <v>-3</v>
-      </c>
-      <c r="T49">
-        <v>-3</v>
-      </c>
-      <c r="U49">
-        <v>-3</v>
-      </c>
-      <c r="V49">
-        <v>-3</v>
-      </c>
-      <c r="W49">
-        <v>-3</v>
-      </c>
-      <c r="X49">
-        <v>-3</v>
-      </c>
-      <c r="Y49">
-        <v>-3</v>
-      </c>
-      <c r="Z49">
-        <v>-3</v>
-      </c>
-      <c r="AA49">
-        <v>-3</v>
-      </c>
-      <c r="AB49">
-        <v>-3</v>
-      </c>
-      <c r="AC49">
-        <v>-3</v>
-      </c>
-      <c r="AD49">
-        <v>-3</v>
-      </c>
-      <c r="AE49">
-        <v>-3</v>
-      </c>
-      <c r="AF49">
-        <v>-3</v>
-      </c>
-      <c r="AG49">
-        <v>-3</v>
-      </c>
-      <c r="AH49">
-        <v>-3</v>
-      </c>
-      <c r="AI49">
-        <v>-3</v>
-      </c>
       <c r="AJ49">
         <v>2</v>
       </c>
@@ -6742,11 +4468,8 @@
       <c r="AN49">
         <v>1</v>
       </c>
-      <c r="AO49">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -6867,11 +4590,8 @@
       <c r="AN50">
         <v>1</v>
       </c>
-      <c r="AO50">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6992,116 +4712,20 @@
       <c r="AN51">
         <v>1</v>
       </c>
-      <c r="AO51">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52">
-        <v>-3</v>
-      </c>
-      <c r="C52">
-        <v>-3</v>
-      </c>
-      <c r="D52">
-        <v>-3</v>
-      </c>
-      <c r="E52">
-        <v>-3</v>
-      </c>
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>-3</v>
-      </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
-      <c r="J52">
-        <v>-3</v>
-      </c>
-      <c r="K52">
-        <v>-3</v>
-      </c>
-      <c r="L52">
-        <v>-3</v>
-      </c>
-      <c r="M52">
-        <v>-3</v>
-      </c>
-      <c r="N52">
-        <v>-3</v>
-      </c>
-      <c r="O52">
-        <v>-3</v>
-      </c>
-      <c r="P52">
-        <v>-3</v>
-      </c>
-      <c r="Q52">
-        <v>-3</v>
-      </c>
-      <c r="R52">
-        <v>-3</v>
-      </c>
-      <c r="S52">
-        <v>-3</v>
-      </c>
-      <c r="T52">
-        <v>-3</v>
-      </c>
-      <c r="U52">
-        <v>-3</v>
-      </c>
-      <c r="V52">
-        <v>-3</v>
-      </c>
-      <c r="W52">
-        <v>-3</v>
-      </c>
-      <c r="X52">
-        <v>-3</v>
-      </c>
-      <c r="Y52">
-        <v>-3</v>
-      </c>
-      <c r="Z52">
-        <v>-3</v>
-      </c>
-      <c r="AA52">
-        <v>-3</v>
-      </c>
-      <c r="AB52">
-        <v>-3</v>
-      </c>
-      <c r="AC52">
-        <v>-3</v>
-      </c>
-      <c r="AD52">
-        <v>-3</v>
-      </c>
-      <c r="AE52">
-        <v>-3</v>
-      </c>
-      <c r="AF52">
-        <v>-3</v>
-      </c>
-      <c r="AG52">
-        <v>-3</v>
-      </c>
-      <c r="AH52">
-        <v>-3</v>
-      </c>
-      <c r="AI52">
-        <v>-3</v>
-      </c>
       <c r="AJ52">
         <v>2</v>
       </c>
@@ -7117,116 +4741,20 @@
       <c r="AN52">
         <v>1</v>
       </c>
-      <c r="AO52">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
-      <c r="B53">
-        <v>-3</v>
-      </c>
-      <c r="C53">
-        <v>-3</v>
-      </c>
-      <c r="D53">
-        <v>-3</v>
-      </c>
-      <c r="E53">
-        <v>-3</v>
-      </c>
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53">
-        <v>-3</v>
-      </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
-      <c r="J53">
-        <v>-3</v>
-      </c>
-      <c r="K53">
-        <v>-3</v>
-      </c>
-      <c r="L53">
-        <v>-3</v>
-      </c>
-      <c r="M53">
-        <v>-3</v>
-      </c>
-      <c r="N53">
-        <v>-3</v>
-      </c>
-      <c r="O53">
-        <v>-3</v>
-      </c>
-      <c r="P53">
-        <v>-3</v>
-      </c>
-      <c r="Q53">
-        <v>-3</v>
-      </c>
-      <c r="R53">
-        <v>-3</v>
-      </c>
-      <c r="S53">
-        <v>-3</v>
-      </c>
-      <c r="T53">
-        <v>-3</v>
-      </c>
-      <c r="U53">
-        <v>-3</v>
-      </c>
-      <c r="V53">
-        <v>-3</v>
-      </c>
-      <c r="W53">
-        <v>-3</v>
-      </c>
-      <c r="X53">
-        <v>-3</v>
-      </c>
-      <c r="Y53">
-        <v>-3</v>
-      </c>
-      <c r="Z53">
-        <v>-3</v>
-      </c>
-      <c r="AA53">
-        <v>-3</v>
-      </c>
-      <c r="AB53">
-        <v>-3</v>
-      </c>
-      <c r="AC53">
-        <v>-3</v>
-      </c>
-      <c r="AD53">
-        <v>-3</v>
-      </c>
-      <c r="AE53">
-        <v>-3</v>
-      </c>
-      <c r="AF53">
-        <v>-3</v>
-      </c>
-      <c r="AG53">
-        <v>-3</v>
-      </c>
-      <c r="AH53">
-        <v>-3</v>
-      </c>
-      <c r="AI53">
-        <v>-3</v>
-      </c>
       <c r="AJ53">
         <v>2</v>
       </c>
@@ -7242,116 +4770,20 @@
       <c r="AN53">
         <v>1</v>
       </c>
-      <c r="AO53">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
-      <c r="B54">
-        <v>-3</v>
-      </c>
-      <c r="C54">
-        <v>-3</v>
-      </c>
-      <c r="D54">
-        <v>-3</v>
-      </c>
-      <c r="E54">
-        <v>-3</v>
-      </c>
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="G54">
-        <v>-3</v>
-      </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
-      <c r="J54">
-        <v>-3</v>
-      </c>
-      <c r="K54">
-        <v>-3</v>
-      </c>
-      <c r="L54">
-        <v>-3</v>
-      </c>
-      <c r="M54">
-        <v>-3</v>
-      </c>
-      <c r="N54">
-        <v>-3</v>
-      </c>
-      <c r="O54">
-        <v>-3</v>
-      </c>
-      <c r="P54">
-        <v>-3</v>
-      </c>
-      <c r="Q54">
-        <v>-3</v>
-      </c>
-      <c r="R54">
-        <v>-3</v>
-      </c>
-      <c r="S54">
-        <v>-3</v>
-      </c>
-      <c r="T54">
-        <v>-3</v>
-      </c>
-      <c r="U54">
-        <v>-3</v>
-      </c>
-      <c r="V54">
-        <v>-3</v>
-      </c>
-      <c r="W54">
-        <v>-3</v>
-      </c>
-      <c r="X54">
-        <v>-3</v>
-      </c>
-      <c r="Y54">
-        <v>-3</v>
-      </c>
-      <c r="Z54">
-        <v>-3</v>
-      </c>
-      <c r="AA54">
-        <v>-3</v>
-      </c>
-      <c r="AB54">
-        <v>-3</v>
-      </c>
-      <c r="AC54">
-        <v>-3</v>
-      </c>
-      <c r="AD54">
-        <v>-3</v>
-      </c>
-      <c r="AE54">
-        <v>-3</v>
-      </c>
-      <c r="AF54">
-        <v>-3</v>
-      </c>
-      <c r="AG54">
-        <v>-3</v>
-      </c>
-      <c r="AH54">
-        <v>-3</v>
-      </c>
-      <c r="AI54">
-        <v>-3</v>
-      </c>
       <c r="AJ54">
         <v>2</v>
       </c>
@@ -7367,116 +4799,20 @@
       <c r="AN54">
         <v>1</v>
       </c>
-      <c r="AO54">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55">
-        <v>-3</v>
-      </c>
-      <c r="C55">
-        <v>-3</v>
-      </c>
-      <c r="D55">
-        <v>-3</v>
-      </c>
-      <c r="E55">
-        <v>-3</v>
-      </c>
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>-3</v>
-      </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
         <v>3</v>
       </c>
-      <c r="J55">
-        <v>-3</v>
-      </c>
-      <c r="K55">
-        <v>-3</v>
-      </c>
-      <c r="L55">
-        <v>-3</v>
-      </c>
-      <c r="M55">
-        <v>-3</v>
-      </c>
-      <c r="N55">
-        <v>-3</v>
-      </c>
-      <c r="O55">
-        <v>-3</v>
-      </c>
-      <c r="P55">
-        <v>-3</v>
-      </c>
-      <c r="Q55">
-        <v>-3</v>
-      </c>
-      <c r="R55">
-        <v>-3</v>
-      </c>
-      <c r="S55">
-        <v>-3</v>
-      </c>
-      <c r="T55">
-        <v>-3</v>
-      </c>
-      <c r="U55">
-        <v>-3</v>
-      </c>
-      <c r="V55">
-        <v>-3</v>
-      </c>
-      <c r="W55">
-        <v>-3</v>
-      </c>
-      <c r="X55">
-        <v>-3</v>
-      </c>
-      <c r="Y55">
-        <v>-3</v>
-      </c>
-      <c r="Z55">
-        <v>-3</v>
-      </c>
-      <c r="AA55">
-        <v>-3</v>
-      </c>
-      <c r="AB55">
-        <v>-3</v>
-      </c>
-      <c r="AC55">
-        <v>-3</v>
-      </c>
-      <c r="AD55">
-        <v>-3</v>
-      </c>
-      <c r="AE55">
-        <v>-3</v>
-      </c>
-      <c r="AF55">
-        <v>-3</v>
-      </c>
-      <c r="AG55">
-        <v>-3</v>
-      </c>
-      <c r="AH55">
-        <v>-3</v>
-      </c>
-      <c r="AI55">
-        <v>-3</v>
-      </c>
       <c r="AJ55">
         <v>2</v>
       </c>
@@ -7492,11 +4828,8 @@
       <c r="AN55">
         <v>2</v>
       </c>
-      <c r="AO55">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -7617,26 +4950,11 @@
       <c r="AN56">
         <v>1</v>
       </c>
-      <c r="AO56">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57">
-        <v>-3</v>
-      </c>
-      <c r="C57">
-        <v>-3</v>
-      </c>
-      <c r="D57">
-        <v>-3</v>
-      </c>
-      <c r="E57">
-        <v>-3</v>
-      </c>
       <c r="F57">
         <v>1</v>
       </c>
@@ -7648,84 +4966,6 @@
       </c>
       <c r="I57">
         <v>3</v>
-      </c>
-      <c r="J57">
-        <v>-3</v>
-      </c>
-      <c r="K57">
-        <v>-3</v>
-      </c>
-      <c r="L57">
-        <v>-3</v>
-      </c>
-      <c r="M57">
-        <v>-3</v>
-      </c>
-      <c r="N57">
-        <v>-3</v>
-      </c>
-      <c r="O57">
-        <v>-3</v>
-      </c>
-      <c r="P57">
-        <v>-3</v>
-      </c>
-      <c r="Q57">
-        <v>-3</v>
-      </c>
-      <c r="R57">
-        <v>-3</v>
-      </c>
-      <c r="S57">
-        <v>-3</v>
-      </c>
-      <c r="T57">
-        <v>-3</v>
-      </c>
-      <c r="U57">
-        <v>-3</v>
-      </c>
-      <c r="V57">
-        <v>-3</v>
-      </c>
-      <c r="W57">
-        <v>-3</v>
-      </c>
-      <c r="X57">
-        <v>-3</v>
-      </c>
-      <c r="Y57">
-        <v>-3</v>
-      </c>
-      <c r="Z57">
-        <v>-3</v>
-      </c>
-      <c r="AA57">
-        <v>-3</v>
-      </c>
-      <c r="AB57">
-        <v>-3</v>
-      </c>
-      <c r="AC57">
-        <v>-3</v>
-      </c>
-      <c r="AD57">
-        <v>-3</v>
-      </c>
-      <c r="AE57">
-        <v>-3</v>
-      </c>
-      <c r="AF57">
-        <v>-3</v>
-      </c>
-      <c r="AG57">
-        <v>-3</v>
-      </c>
-      <c r="AH57">
-        <v>-3</v>
-      </c>
-      <c r="AI57">
-        <v>-3</v>
       </c>
       <c r="AJ57">
         <v>2</v>
@@ -7742,11 +4982,8 @@
       <c r="AN57">
         <v>6</v>
       </c>
-      <c r="AO57">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7866,9 +5103,6 @@
       </c>
       <c r="AN58">
         <v>8</v>
-      </c>
-      <c r="AO58">
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
